--- a/biology/Médecine/Charles_Domery/Charles_Domery.xlsx
+++ b/biology/Médecine/Charles_Domery/Charles_Domery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Domery, connu plus tard comme Charles Domerz, né vers 1778 et mort après 1800, est un soldat polonais qui a servi dans l'Armée prussienne et l'Armée révolutionnaire française. Il est connu pour son appétit inhabituel.
-Engagé dans la marine française à bord du vaisseau Le Hoche, au cours d'un combat, la jambe d'un marin a été arrachée par un coup de canon, et Charles Domery a saisi le membre sectionné et a commencé à le manger jusqu'à ce qu'un membre de l'équipage le lui ait repris des mains pour le jeter dans la mer[1],[2].
+Engagé dans la marine française à bord du vaisseau Le Hoche, au cours d'un combat, la jambe d'un marin a été arrachée par un coup de canon, et Charles Domery a saisi le membre sectionné et a commencé à le manger jusqu'à ce qu'un membre de l'équipage le lui ait repris des mains pour le jeter dans la mer,.
 </t>
         </is>
       </c>
